--- a/utils/recordingExcel/SPR/SPR_RNP_TBOffset_Recording.xlsx
+++ b/utils/recordingExcel/SPR/SPR_RNP_TBOffset_Recording.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECEACA6-1E6A-4331-B920-15A465BBCEF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="第一针" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6270" uniqueCount="1943">
   <si>
     <t>RNP_Noise</t>
   </si>
@@ -967,6 +967,4899 @@
   <si>
     <t>Irreg2Reg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BLOCKPATH</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-9</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-10</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-5</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-12</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-1</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-2</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-3</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-4</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-5</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-6</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-7</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-8</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-9</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-10</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-11</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-12</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-14</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-15</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-16</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-17</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-18</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-19</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-20</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-21</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-22</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-23</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-24</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-25</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-26</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-2</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-5</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-6</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-7</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-8</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-9</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-10</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-11</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-12</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI</t>
+  </si>
+  <si>
+    <t>RNP_TB_Oscillation</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio_4</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic</t>
+  </si>
+  <si>
+    <t>TwoPitch_Preliminary</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>Irreg2Reg</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>LocalGlobal_4_5</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>RNP_Noise4</t>
+  </si>
+  <si>
+    <t>RNP_Noise5</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic2</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF2</t>
+  </si>
+  <si>
+    <t>datPath</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording6\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording15\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording16\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording17\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording11\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>SR_AP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>SR_LFP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>sitePos</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>5460</t>
+  </si>
+  <si>
+    <t>3660</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3678</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lfpExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spkExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>recTech</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>NeuroPixel</t>
+  </si>
+  <si>
+    <t>chNum</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>ks_ChSel</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ks_ID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BLOCKPATH</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-9</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-10</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-5</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-12</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-1</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-2</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-3</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-4</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-5</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-6</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-7</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-8</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-9</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-10</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-11</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-12</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-14</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-15</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-16</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-17</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-18</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-19</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-20</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-21</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-22</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-23</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-24</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-25</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-26</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-2</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-5</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-6</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-7</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-8</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-9</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-10</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-11</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-12</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI</t>
+  </si>
+  <si>
+    <t>RNP_TB_Oscillation</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio_4</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic</t>
+  </si>
+  <si>
+    <t>TwoPitch_Preliminary</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>Irreg2Reg</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>LocalGlobal_4_5</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>RNP_Noise4</t>
+  </si>
+  <si>
+    <t>RNP_Noise5</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic2</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF2</t>
+  </si>
+  <si>
+    <t>datPath</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording6\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording15\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording16\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording17\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording11\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>SR_AP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>SR_LFP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>sitePos</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>5460</t>
+  </si>
+  <si>
+    <t>3660</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3678</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lfpExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spkExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>recTech</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>NeuroPixel</t>
+  </si>
+  <si>
+    <t>chNum</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>ks_ChSel</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ks_ID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BLOCKPATH</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-9</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-10</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-5</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-12</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-1</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-2</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-3</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-4</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-5</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-6</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-7</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-8</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-9</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-10</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-11</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-12</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-14</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-15</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-16</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-17</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-18</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-19</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-20</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-21</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-22</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-23</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-24</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-25</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-26</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-2</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-5</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-6</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-7</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-8</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-9</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-10</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-11</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-12</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI</t>
+  </si>
+  <si>
+    <t>RNP_TB_Oscillation</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio_4</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic</t>
+  </si>
+  <si>
+    <t>TwoPitch_Preliminary</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>Irreg2Reg</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>LocalGlobal_4_5</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>RNP_Noise4</t>
+  </si>
+  <si>
+    <t>RNP_Noise5</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic2</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF2</t>
+  </si>
+  <si>
+    <t>datPath</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording6\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording15\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording16\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording17\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording11\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>SR_AP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>SR_LFP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>sitePos</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>5460</t>
+  </si>
+  <si>
+    <t>3660</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3678</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lfpExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spkExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>recTech</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>NeuroPixel</t>
+  </si>
+  <si>
+    <t>chNum</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>ks_ChSel</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ks_ID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BLOCKPATH</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-9</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-10</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-5</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-12</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-1</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-2</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-3</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-4</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-5</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-6</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-7</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-8</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-9</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-10</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-11</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-12</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-14</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-15</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-16</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-17</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-18</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-19</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-20</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-21</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-22</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-23</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-24</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-25</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-26</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-2</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-5</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-6</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-7</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-8</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-9</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-10</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-11</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-12</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI</t>
+  </si>
+  <si>
+    <t>RNP_TB_Oscillation</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio_4</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic</t>
+  </si>
+  <si>
+    <t>TwoPitch_Preliminary</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>Irreg2Reg</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>LocalGlobal_4_5</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>RNP_Noise4</t>
+  </si>
+  <si>
+    <t>RNP_Noise5</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic2</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF2</t>
+  </si>
+  <si>
+    <t>datPath</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording6\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording15\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording16\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording17\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording11\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>SR_AP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>SR_LFP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>sitePos</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>5460</t>
+  </si>
+  <si>
+    <t>3660</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3678</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lfpExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spkExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>recTech</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>NeuroPixel</t>
+  </si>
+  <si>
+    <t>chNum</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>ks_ChSel</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ks_ID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BLOCKPATH</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-9</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-10</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-5</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-12</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-1</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-2</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-3</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-4</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-5</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-6</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-7</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-8</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-9</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-10</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-11</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-12</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-14</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-15</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-16</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-17</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-18</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-19</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-20</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-21</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-22</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-23</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-24</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-25</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-26</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-2</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-5</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-6</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-7</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-8</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-9</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-10</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-11</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-12</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI</t>
+  </si>
+  <si>
+    <t>RNP_TB_Oscillation</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio_4</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic</t>
+  </si>
+  <si>
+    <t>TwoPitch_Preliminary</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>Irreg2Reg</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>LocalGlobal_4_5</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>RNP_Noise4</t>
+  </si>
+  <si>
+    <t>RNP_Noise5</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic2</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF2</t>
+  </si>
+  <si>
+    <t>datPath</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording6\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording15\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording16\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording17\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording11\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>SR_AP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>SR_LFP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>sitePos</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>5460</t>
+  </si>
+  <si>
+    <t>3660</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3678</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lfpExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spkExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>recTech</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>NeuroPixel</t>
+  </si>
+  <si>
+    <t>chNum</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>ks_ChSel</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ks_ID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BLOCKPATH</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-9</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-10</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-5</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-12</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-1</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-2</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-3</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-4</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-5</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-6</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-7</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-8</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-9</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-10</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-11</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-12</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-14</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-15</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-16</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-17</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-18</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-19</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-20</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-21</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-22</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-23</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-24</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-25</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-26</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-2</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-5</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-6</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-7</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-8</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-9</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-10</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-11</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-12</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI</t>
+  </si>
+  <si>
+    <t>RNP_TB_Oscillation</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio_4</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic</t>
+  </si>
+  <si>
+    <t>TwoPitch_Preliminary</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>Irreg2Reg</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>LocalGlobal_4_5</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>RNP_Noise4</t>
+  </si>
+  <si>
+    <t>RNP_Noise5</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic2</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF2</t>
+  </si>
+  <si>
+    <t>datPath</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording6\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording15\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording16\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording17\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording11\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>SR_AP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>SR_LFP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>sitePos</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>5460</t>
+  </si>
+  <si>
+    <t>3660</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3678</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lfpExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spkExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>recTech</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>NeuroPixel</t>
+  </si>
+  <si>
+    <t>chNum</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>ks_ChSel</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ks_ID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BLOCKPATH</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-9</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-10</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-5</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-12</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-1</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-2</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-3</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-4</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-5</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-6</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-7</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-8</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-9</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-10</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-11</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-12</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-14</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-15</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-16</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-17</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-18</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-19</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-20</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-21</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-22</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-23</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-24</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-25</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-26</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-2</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-5</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-6</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-7</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-8</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-9</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-10</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-11</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-12</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI</t>
+  </si>
+  <si>
+    <t>RNP_TB_Oscillation</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio_4</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic</t>
+  </si>
+  <si>
+    <t>TwoPitch_Preliminary</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>Irreg2Reg</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>LocalGlobal_4_5</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>RNP_Noise4</t>
+  </si>
+  <si>
+    <t>RNP_Noise5</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic2</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF2</t>
+  </si>
+  <si>
+    <t>datPath</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording6\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording15\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording16\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording17\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording11\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>SR_AP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>SR_LFP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>sitePos</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>5460</t>
+  </si>
+  <si>
+    <t>3660</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3678</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lfpExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spkExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>recTech</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>NeuroPixel</t>
+  </si>
+  <si>
+    <t>chNum</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>ks_ChSel</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ks_ID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +5902,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1156,65 +6049,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1497,2805 +6392,2971 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="112.25" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.75" customWidth="1"/>
-    <col min="8" max="9" width="6.875" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="5.625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.875" customWidth="1"/>
-    <col min="17" max="17" width="8" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.75" customWidth="1"/>
-    <col min="20" max="20" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="3.125" customWidth="true"/>
+    <col min="2" max="2" width="52.625" customWidth="true"/>
+    <col min="3" max="3" width="19.125" customWidth="true"/>
+    <col min="4" max="4" width="112.25" customWidth="true"/>
+    <col min="5" max="5" width="6.875" style="14" customWidth="true"/>
+    <col min="7" max="7" width="6.75" customWidth="true"/>
+    <col min="8" max="8" width="6.875" customWidth="true"/>
+    <col min="10" max="10" width="10.625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="11.375" customWidth="true"/>
+    <col min="12" max="12" width="9.875" customWidth="true"/>
+    <col min="13" max="13" width="7" customWidth="true"/>
+    <col min="14" max="14" width="10.875" style="9" customWidth="true"/>
+    <col min="15" max="15" width="5.625" style="6" customWidth="true"/>
+    <col min="16" max="16" width="6.875" customWidth="true"/>
+    <col min="17" max="17" width="8" style="6" customWidth="true"/>
+    <col min="18" max="18" width="5.625" style="6" customWidth="true"/>
+    <col min="19" max="19" width="9.75" customWidth="true"/>
+    <col min="20" max="20" width="34.875" customWidth="true"/>
+    <col min="6" max="6" width="6.875" style="14" customWidth="true"/>
+    <col min="9" max="9" width="6.875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>79</v>
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
+        <v>1710</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>1711</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>141</v>
+        <v>1773</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>202</v>
+        <v>1835</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>264</v>
+        <v>1897</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>267</v>
+        <v>1900</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>270</v>
+        <v>1903</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>276</v>
+        <v>1909</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>283</v>
+        <v>1916</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>286</v>
+        <v>1919</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>289</v>
+        <v>1922</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>292</v>
+        <v>1925</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>295</v>
+        <v>1928</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>298</v>
+        <v>1931</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>300</v>
+        <v>1933</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>302</v>
+        <v>1935</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>304</v>
+        <v>1937</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1" t="s">
-        <v>308</v>
+        <v>1939</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>1941</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>81</v>
+        <v>1712</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>142</v>
+        <v>1774</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>203</v>
+        <v>1836</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>265</v>
+        <v>1898</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>268</v>
+        <v>1901</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>271</v>
+        <v>1904</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>277</v>
+        <v>1910</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>284</v>
+        <v>1917</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>287</v>
+        <v>1920</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>290</v>
+        <v>1923</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>293</v>
+        <v>1926</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>296</v>
+        <v>1929</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>299</v>
+        <v>1932</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>301</v>
+        <v>1934</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>303</v>
+        <v>1936</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>305</v>
+        <v>1938</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>307</v>
+        <v>1940</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>309</v>
+        <v>1942</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="17" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>82</v>
+        <v>1713</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>143</v>
+        <v>1775</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>204</v>
+        <v>1837</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>272</v>
+        <v>1905</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>278</v>
+        <v>1911</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="22"/>
+      <c r="P3" s="17"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
+      <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>83</v>
+        <v>1714</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>144</v>
+        <v>1776</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>205</v>
+        <v>1838</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>272</v>
+        <v>1905</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>278</v>
+        <v>1911</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="12"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
+      <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>84</v>
+        <v>1715</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>145</v>
+        <v>1777</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>206</v>
+        <v>1839</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>272</v>
+        <v>1905</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>278</v>
+        <v>1911</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="12"/>
+      <c r="P5" s="10"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
+      <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>1716</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>146</v>
+        <v>1778</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>207</v>
+        <v>1840</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>272</v>
+        <v>1905</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>278</v>
+        <v>1911</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="12"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
+      <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>86</v>
+        <v>1717</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>147</v>
+        <v>1779</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>208</v>
+        <v>1841</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>272</v>
+        <v>1905</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>278</v>
+        <v>1911</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="12"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
+      <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" s="10" customFormat="true" ht="12.75" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>87</v>
+        <v>1718</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>148</v>
+        <v>1780</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>209</v>
+        <v>1842</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>272</v>
+        <v>1905</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>278</v>
+        <v>1911</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
+      <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>88</v>
+        <v>1719</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>149</v>
+        <v>1781</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>210</v>
+        <v>1843</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>272</v>
+        <v>1905</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>278</v>
+        <v>1911</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="12"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
+      <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>89</v>
+        <v>1720</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>150</v>
+        <v>1782</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>211</v>
+        <v>1844</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>272</v>
+        <v>1905</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>278</v>
+        <v>1911</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="12"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
+      <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>90</v>
+        <v>1721</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>151</v>
+        <v>1783</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>212</v>
+        <v>1845</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>272</v>
+        <v>1905</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>278</v>
+        <v>1911</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="12"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
+      <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="1:19" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" s="24" customFormat="true" ht="13.5" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>1</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>91</v>
+        <v>1722</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>152</v>
+        <v>1784</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>213</v>
+        <v>1846</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>272</v>
+        <v>1905</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>278</v>
+        <v>1911</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N12" s="28"/>
       <c r="O12" s="25"/>
+      <c r="P12" s="24"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
+      <c r="S12" s="24"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
         <v>2</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>92</v>
+        <v>1723</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" t="s">
-        <v>214</v>
+        <v>1785</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>1847</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="0"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>93</v>
+      <c r="B14" s="0" t="s">
+        <v>1724</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" t="s">
-        <v>215</v>
+        <v>1786</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>1848</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="0"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>94</v>
+      <c r="B15" s="0" t="s">
+        <v>1725</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>216</v>
+        <v>1787</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>1849</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="0"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>95</v>
+      <c r="B16" s="0" t="s">
+        <v>1726</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" t="s">
-        <v>217</v>
+        <v>1788</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>1850</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="0"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
-        <v>96</v>
+      <c r="B17" s="0" t="s">
+        <v>1727</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" t="s">
-        <v>218</v>
+        <v>1789</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>1851</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="0"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>97</v>
+      <c r="B18" s="0" t="s">
+        <v>1728</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" t="s">
-        <v>219</v>
+        <v>1790</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>1852</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="0"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>98</v>
+      <c r="B19" s="0" t="s">
+        <v>1729</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" t="s">
-        <v>220</v>
+        <v>1791</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>1853</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="0"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
-        <v>99</v>
+      <c r="B20" s="0" t="s">
+        <v>1730</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" t="s">
-        <v>221</v>
+        <v>1792</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>1854</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="0"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="0">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>100</v>
+      <c r="B21" s="0" t="s">
+        <v>1731</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" t="s">
-        <v>222</v>
+        <v>1793</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>1855</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="0"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="0">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>101</v>
+      <c r="B22" s="0" t="s">
+        <v>1732</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" t="s">
-        <v>223</v>
+        <v>1794</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>1856</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="0"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" ht="15" thickBot="true" x14ac:dyDescent="0.25">
+      <c r="A23" s="0">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>102</v>
+      <c r="B23" s="0" t="s">
+        <v>1733</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" t="s">
-        <v>224</v>
+        <v>1795</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>1857</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>279</v>
+        <v>1912</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>297</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="0"/>
     </row>
-    <row r="24" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" s="36" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>3</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>103</v>
+        <v>1734</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>164</v>
+        <v>1796</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>225</v>
+        <v>1858</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N24" s="39"/>
       <c r="O24" s="40"/>
+      <c r="P24" s="36"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="40"/>
+      <c r="S24" s="36"/>
     </row>
-    <row r="25" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A25" s="41">
         <v>3</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>104</v>
+        <v>1735</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>165</v>
+        <v>1797</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>226</v>
+        <v>1859</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N25" s="42"/>
       <c r="O25" s="34"/>
+      <c r="P25" s="32"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
+      <c r="S25" s="32"/>
     </row>
-    <row r="26" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A26" s="41">
         <v>3</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>105</v>
+        <v>1736</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>166</v>
+        <v>1798</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>227</v>
+        <v>1860</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N26" s="42"/>
       <c r="O26" s="34"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
+      <c r="S26" s="32"/>
     </row>
-    <row r="27" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A27" s="41">
         <v>3</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>106</v>
+        <v>1737</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>167</v>
+        <v>1799</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>228</v>
+        <v>1861</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N27" s="42"/>
       <c r="O27" s="34"/>
+      <c r="P27" s="32"/>
       <c r="Q27" s="34"/>
       <c r="R27" s="34"/>
+      <c r="S27" s="32"/>
     </row>
-    <row r="28" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A28" s="41">
         <v>4</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>107</v>
+        <v>1738</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>168</v>
+        <v>1800</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>229</v>
+        <v>1862</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N28" s="42"/>
       <c r="O28" s="34"/>
+      <c r="P28" s="32"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
+      <c r="S28" s="32"/>
     </row>
-    <row r="29" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A29" s="41">
         <v>4</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>108</v>
+        <v>1739</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>169</v>
+        <v>1801</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>230</v>
+        <v>1863</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N29" s="42"/>
       <c r="O29" s="34"/>
+      <c r="P29" s="32"/>
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
+      <c r="S29" s="32"/>
     </row>
-    <row r="30" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A30" s="41">
         <v>4</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>109</v>
+        <v>1740</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>170</v>
+        <v>1802</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>231</v>
+        <v>1864</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N30" s="42"/>
       <c r="O30" s="34"/>
+      <c r="P30" s="32"/>
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
+      <c r="S30" s="32"/>
     </row>
-    <row r="31" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A31" s="41">
         <v>5</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>110</v>
+        <v>1741</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>171</v>
+        <v>1803</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>232</v>
+        <v>1865</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N31" s="42"/>
       <c r="O31" s="34"/>
+      <c r="P31" s="32"/>
       <c r="Q31" s="34"/>
       <c r="R31" s="34"/>
+      <c r="S31" s="32"/>
     </row>
-    <row r="32" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A32" s="41">
         <v>5</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>111</v>
+        <v>1742</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>172</v>
+        <v>1804</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>233</v>
+        <v>1866</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L32" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N32" s="42"/>
       <c r="O32" s="34"/>
+      <c r="P32" s="32"/>
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
+      <c r="S32" s="32"/>
     </row>
-    <row r="33" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A33" s="41">
         <v>5</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>112</v>
+        <v>1743</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>173</v>
+        <v>1805</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>234</v>
+        <v>1867</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N33" s="42"/>
       <c r="O33" s="34"/>
+      <c r="P33" s="32"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
+      <c r="S33" s="32"/>
     </row>
-    <row r="34" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
         <v>5</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>113</v>
+        <v>1744</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>174</v>
+        <v>1806</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>235</v>
+        <v>1868</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N34" s="42"/>
       <c r="O34" s="34"/>
+      <c r="P34" s="32"/>
       <c r="Q34" s="34"/>
       <c r="R34" s="34"/>
+      <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A35" s="41">
         <v>5</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>114</v>
+        <v>1745</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>175</v>
+        <v>1807</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>236</v>
+        <v>1869</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N35" s="42"/>
       <c r="O35" s="34"/>
+      <c r="P35" s="32"/>
       <c r="Q35" s="34"/>
       <c r="R35" s="34"/>
+      <c r="S35" s="32"/>
     </row>
-    <row r="36" spans="1:18" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" s="32" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>5</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>115</v>
+        <v>1746</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>176</v>
+        <v>1808</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>237</v>
+        <v>1870</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>273</v>
+        <v>1906</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>280</v>
+        <v>1913</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N36" s="42"/>
       <c r="O36" s="34"/>
+      <c r="P36" s="32"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="34"/>
+      <c r="S36" s="32"/>
     </row>
-    <row r="37" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" s="36" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
         <v>6</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>116</v>
+        <v>1747</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>177</v>
+        <v>1809</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>238</v>
+        <v>1871</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L37" s="37" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M37" s="37" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N37" s="39"/>
       <c r="O37" s="40"/>
+      <c r="P37" s="36"/>
       <c r="Q37" s="40"/>
       <c r="R37" s="40"/>
+      <c r="S37" s="36"/>
     </row>
-    <row r="38" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A38" s="41">
         <v>6</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>117</v>
+        <v>1748</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>178</v>
+        <v>1810</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>239</v>
+        <v>1872</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N38" s="42"/>
       <c r="O38" s="34"/>
+      <c r="P38" s="32"/>
       <c r="Q38" s="34"/>
       <c r="R38" s="34"/>
+      <c r="S38" s="32"/>
     </row>
-    <row r="39" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A39" s="41">
         <v>6</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>118</v>
+        <v>1749</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>179</v>
+        <v>1811</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>240</v>
+        <v>1873</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N39" s="42"/>
       <c r="O39" s="34"/>
+      <c r="P39" s="32"/>
       <c r="Q39" s="34"/>
       <c r="R39" s="34"/>
+      <c r="S39" s="32"/>
     </row>
-    <row r="40" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A40" s="41">
         <v>6</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>119</v>
+        <v>1750</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>180</v>
+        <v>1812</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>241</v>
+        <v>1874</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N40" s="42"/>
       <c r="O40" s="34"/>
+      <c r="P40" s="32"/>
       <c r="Q40" s="34"/>
       <c r="R40" s="34"/>
+      <c r="S40" s="32"/>
     </row>
-    <row r="41" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A41" s="41">
         <v>7</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>120</v>
+        <v>1751</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>181</v>
+        <v>1813</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>242</v>
+        <v>1875</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N41" s="42"/>
       <c r="O41" s="34"/>
+      <c r="P41" s="32"/>
       <c r="Q41" s="34"/>
       <c r="R41" s="34"/>
+      <c r="S41" s="32"/>
     </row>
-    <row r="42" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A42" s="41">
         <v>7</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>121</v>
+        <v>1752</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>182</v>
+        <v>1814</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>243</v>
+        <v>1876</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N42" s="42"/>
       <c r="O42" s="34"/>
+      <c r="P42" s="32"/>
       <c r="Q42" s="34"/>
       <c r="R42" s="34"/>
+      <c r="S42" s="32"/>
     </row>
-    <row r="43" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A43" s="41">
         <v>7</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>122</v>
+        <v>1753</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>183</v>
+        <v>1815</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>244</v>
+        <v>1877</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K43" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N43" s="42"/>
       <c r="O43" s="34"/>
+      <c r="P43" s="32"/>
       <c r="Q43" s="34"/>
       <c r="R43" s="34"/>
+      <c r="S43" s="32"/>
     </row>
-    <row r="44" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A44" s="41">
         <v>8</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>123</v>
+        <v>1754</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>184</v>
+        <v>1816</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>245</v>
+        <v>1878</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L44" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N44" s="42"/>
       <c r="O44" s="34"/>
+      <c r="P44" s="32"/>
       <c r="Q44" s="34"/>
       <c r="R44" s="34"/>
+      <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A45" s="41">
         <v>8</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>124</v>
+        <v>1755</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>185</v>
+        <v>1817</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>246</v>
+        <v>1879</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N45" s="42"/>
       <c r="O45" s="34"/>
+      <c r="P45" s="32"/>
       <c r="Q45" s="34"/>
       <c r="R45" s="34"/>
+      <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A46" s="41">
         <v>8</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>125</v>
+        <v>1756</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>186</v>
+        <v>1818</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>247</v>
+        <v>1880</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M46" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N46" s="42"/>
       <c r="O46" s="34"/>
+      <c r="P46" s="32"/>
       <c r="Q46" s="34"/>
       <c r="R46" s="34"/>
+      <c r="S46" s="32"/>
     </row>
-    <row r="47" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A47" s="41">
         <v>8</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>126</v>
+        <v>1757</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>187</v>
+        <v>1819</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>248</v>
+        <v>1881</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H47" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K47" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M47" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N47" s="42"/>
       <c r="O47" s="34"/>
+      <c r="P47" s="32"/>
       <c r="Q47" s="34"/>
       <c r="R47" s="34"/>
+      <c r="S47" s="32"/>
     </row>
-    <row r="48" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A48" s="41">
         <v>8</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>127</v>
+        <v>1758</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>188</v>
+        <v>1820</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>249</v>
+        <v>1882</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M48" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N48" s="42"/>
       <c r="O48" s="34"/>
+      <c r="P48" s="32"/>
       <c r="Q48" s="34"/>
       <c r="R48" s="34"/>
+      <c r="S48" s="32"/>
     </row>
-    <row r="49" spans="1:18" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" s="44" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <v>8</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>128</v>
+        <v>1759</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>189</v>
+        <v>1821</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>250</v>
+        <v>1883</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>274</v>
+        <v>1907</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>281</v>
+        <v>1914</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J49" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L49" s="47" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M49" s="47" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N49" s="48"/>
       <c r="O49" s="45"/>
+      <c r="P49" s="44"/>
       <c r="Q49" s="45"/>
       <c r="R49" s="45"/>
+      <c r="S49" s="44"/>
     </row>
-    <row r="50" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" s="36" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A50" s="35">
         <v>9</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>310</v>
+        <v>1760</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>190</v>
+        <v>1822</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>251</v>
+        <v>1884</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N50" s="39"/>
       <c r="O50" s="40"/>
+      <c r="P50" s="36"/>
       <c r="Q50" s="40"/>
       <c r="R50" s="40"/>
+      <c r="S50" s="36"/>
     </row>
-    <row r="51" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A51" s="41">
         <v>9</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>129</v>
+        <v>1761</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>191</v>
+        <v>1823</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>252</v>
+        <v>1885</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L51" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M51" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N51" s="42"/>
       <c r="O51" s="34"/>
+      <c r="P51" s="32"/>
       <c r="Q51" s="34"/>
       <c r="R51" s="34"/>
+      <c r="S51" s="32"/>
     </row>
-    <row r="52" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A52" s="41">
         <v>9</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>130</v>
+        <v>1762</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>192</v>
+        <v>1824</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>253</v>
+        <v>1886</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L52" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M52" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N52" s="42"/>
       <c r="O52" s="34"/>
+      <c r="P52" s="32"/>
       <c r="Q52" s="34"/>
       <c r="R52" s="34"/>
+      <c r="S52" s="32"/>
     </row>
-    <row r="53" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" s="49" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A53" s="52">
         <v>9</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>131</v>
+        <v>1763</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>193</v>
+        <v>1825</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>254</v>
+        <v>1887</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I53" s="49" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J53" s="49" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K53" s="49" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L53" s="52" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M53" s="52" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N53" s="53"/>
       <c r="O53" s="50"/>
+      <c r="P53" s="49"/>
       <c r="Q53" s="50"/>
       <c r="R53" s="50"/>
+      <c r="S53" s="49"/>
     </row>
-    <row r="54" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" s="49" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A54" s="41">
         <v>10</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>132</v>
+        <v>1764</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>194</v>
+        <v>1826</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>255</v>
+        <v>1888</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J54" s="49" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K54" s="49" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L54" s="52" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M54" s="52" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N54" s="53"/>
       <c r="O54" s="50"/>
+      <c r="P54" s="49"/>
       <c r="Q54" s="50"/>
       <c r="R54" s="50"/>
+      <c r="S54" s="49"/>
     </row>
-    <row r="55" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A55" s="41">
         <v>10</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>133</v>
+        <v>1765</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>311</v>
+        <v>1827</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>256</v>
+        <v>1889</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H55" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M55" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N55" s="42"/>
       <c r="O55" s="34"/>
+      <c r="P55" s="32"/>
       <c r="Q55" s="34"/>
       <c r="R55" s="34"/>
+      <c r="S55" s="32"/>
     </row>
-    <row r="56" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" s="49" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A56" s="41">
         <v>11</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>134</v>
+        <v>1766</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>195</v>
+        <v>1828</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>257</v>
+        <v>1890</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H56" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I56" s="49" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J56" s="49" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K56" s="49" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L56" s="52" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M56" s="52" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N56" s="53"/>
       <c r="O56" s="50"/>
+      <c r="P56" s="49"/>
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
+      <c r="S56" s="49"/>
     </row>
-    <row r="57" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A57" s="41">
         <v>11</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>135</v>
+        <v>1767</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>196</v>
+        <v>1829</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>258</v>
+        <v>1891</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H57" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J57" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M57" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N57" s="42"/>
       <c r="O57" s="34"/>
+      <c r="P57" s="32"/>
       <c r="Q57" s="34"/>
       <c r="R57" s="34"/>
+      <c r="S57" s="32"/>
     </row>
-    <row r="58" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A58" s="41">
         <v>11</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>136</v>
+        <v>1768</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>197</v>
+        <v>1830</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>259</v>
+        <v>1892</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J58" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L58" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M58" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N58" s="42"/>
       <c r="O58" s="34"/>
+      <c r="P58" s="32"/>
       <c r="Q58" s="34"/>
       <c r="R58" s="34"/>
+      <c r="S58" s="32"/>
     </row>
-    <row r="59" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A59" s="41">
         <v>12</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>137</v>
+        <v>1769</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>198</v>
+        <v>1831</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>260</v>
+        <v>1893</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L59" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M59" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N59" s="42"/>
       <c r="O59" s="34"/>
+      <c r="P59" s="32"/>
       <c r="Q59" s="34"/>
       <c r="R59" s="34"/>
+      <c r="S59" s="32"/>
     </row>
-    <row r="60" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A60" s="41">
         <v>12</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>138</v>
+        <v>1770</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>199</v>
+        <v>1832</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>261</v>
+        <v>1894</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L60" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M60" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N60" s="42"/>
       <c r="O60" s="34"/>
+      <c r="P60" s="32"/>
       <c r="Q60" s="34"/>
       <c r="R60" s="34"/>
+      <c r="S60" s="32"/>
     </row>
-    <row r="61" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A61" s="41">
         <v>12</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>139</v>
+        <v>1771</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>200</v>
+        <v>1833</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>262</v>
+        <v>1895</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H61" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L61" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M61" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N61" s="42"/>
       <c r="O61" s="34"/>
+      <c r="P61" s="32"/>
       <c r="Q61" s="34"/>
       <c r="R61" s="34"/>
+      <c r="S61" s="32"/>
     </row>
-    <row r="62" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A62" s="41">
         <v>12</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>140</v>
+        <v>1772</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>201</v>
+        <v>1834</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>263</v>
+        <v>1896</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>266</v>
+        <v>1899</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>269</v>
+        <v>1902</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>275</v>
+        <v>1908</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>282</v>
+        <v>1915</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>285</v>
+        <v>1918</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>288</v>
+        <v>1921</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>291</v>
+        <v>1924</v>
       </c>
       <c r="L62" s="31" t="s">
-        <v>294</v>
+        <v>1927</v>
       </c>
       <c r="M62" s="31" t="s">
-        <v>297</v>
+        <v>1930</v>
       </c>
       <c r="N62" s="42"/>
       <c r="O62" s="34"/>
+      <c r="P62" s="32"/>
       <c r="Q62" s="34"/>
       <c r="R62" s="34"/>
+      <c r="S62" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4314,15 +9375,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="63.375" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="111.25" customWidth="1"/>
-    <col min="5" max="5" width="92" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="63.375" customWidth="true"/>
+    <col min="3" max="3" width="30.25" customWidth="true"/>
+    <col min="4" max="4" width="111.25" customWidth="true"/>
+    <col min="5" max="5" width="92" customWidth="true"/>
     <col min="9" max="9" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A1" s="31">
         <v>4</v>
       </c>
@@ -4367,7 +9428,7 @@
       <c r="Q1" s="34"/>
       <c r="R1" s="34"/>
     </row>
-    <row r="2" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
         <v>4</v>
       </c>
@@ -4412,7 +9473,7 @@
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
     </row>
-    <row r="3" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>4</v>
       </c>
@@ -4457,7 +9518,7 @@
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>4</v>
       </c>
@@ -4502,7 +9563,7 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -4547,7 +9608,7 @@
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>4</v>
       </c>
@@ -4592,7 +9653,7 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>4</v>
       </c>
@@ -4637,7 +9698,7 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
     </row>
-    <row r="8" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>4</v>
       </c>
@@ -4682,7 +9743,7 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -4727,7 +9788,7 @@
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>4</v>
       </c>
@@ -4772,7 +9833,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>4</v>
       </c>
@@ -4817,7 +9878,7 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>4</v>
       </c>
@@ -4862,7 +9923,7 @@
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
     </row>
-    <row r="13" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>4</v>
       </c>
@@ -4924,7 +9985,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="17" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A1" s="17">
         <v>1</v>
       </c>
@@ -4966,7 +10027,7 @@
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -5008,7 +10069,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -5050,7 +10111,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -5092,7 +10153,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -5134,7 +10195,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -5176,7 +10237,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -5218,7 +10279,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -5260,7 +10321,7 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -5302,7 +10363,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
     </row>
-    <row r="10" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" s="24" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>1</v>
       </c>

--- a/utils/recordingExcel/SPR/SPR_RNP_TBOffset_Recording.xlsx
+++ b/utils/recordingExcel/SPR/SPR_RNP_TBOffset_Recording.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9955748-C27D-40F8-90B0-59093444960C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="true"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081F8E6A-477D-4F56-9EC0-299E45443498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9132" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="第一针" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="33991" uniqueCount="365">
   <si>
     <t>RNP_Noise</t>
   </si>
@@ -169,6 +169,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BLOCKPATH</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-9</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-10</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-1</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-2</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-3</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-4</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-5</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-6</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-7</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-8</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-11</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-12</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-1</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-2</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-3</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-4</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-5</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-6</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-7</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-8</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-9</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-10</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-11</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-12</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-13</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-14</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-15</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-16</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-17</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-18</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-19</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-20</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-21</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-22</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-23</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-24</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-25</t>
+  </si>
+  <si>
+    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-26</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
     <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-2</t>
   </si>
   <si>
@@ -181,12 +340,363 @@
     <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
   </si>
   <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-7</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-8</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-9</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-10</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-11</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-12</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI</t>
+  </si>
+  <si>
+    <t>RNP_TB_Oscillation</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning</t>
+  </si>
+  <si>
+    <t>RNP_MMN</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_TB_Basic_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI_2_3</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio_4</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
+    <t>RNP_CSD</t>
+  </si>
+  <si>
+    <t>RNP_Precise</t>
+  </si>
+  <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>RNP_Click_Tuning_ICI4</t>
+  </si>
+  <si>
+    <t>RNP_MMN_ICI4_250</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_8</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq2_16</t>
+  </si>
+  <si>
+    <t>RNP_Const2_8_16</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq28</t>
+  </si>
+  <si>
+    <t>RNP_RandSeq216</t>
+  </si>
+  <si>
+    <t>RNP_Noise</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF</t>
+  </si>
+  <si>
     <t>RNP_Intrinsic</t>
   </si>
   <si>
     <t>TwoPitch_Preliminary</t>
   </si>
   <si>
+    <t>RNP_Noise2</t>
+  </si>
+  <si>
+    <t>Irreg2Reg</t>
+  </si>
+  <si>
+    <t>RNP_Noise3</t>
+  </si>
+  <si>
+    <t>LocalGlobal_4_5</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>RNP_Noise4</t>
+  </si>
+  <si>
+    <t>RNP_Noise5</t>
+  </si>
+  <si>
+    <t>RNP_Intrinsic2</t>
+  </si>
+  <si>
+    <t>RNP_ToneCF2</t>
+  </si>
+  <si>
+    <t>datPath</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording6\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording15\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording16\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
+    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording17\continuous\Neuropix-PXI-122.ProbeA</t>
+  </si>
+  <si>
     <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
   </si>
   <si>
@@ -199,721 +709,169 @@
     <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
   </si>
   <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording11\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>SR_AP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>SR_LFP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>sitePos</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>IC1</t>
   </si>
   <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>5460</t>
+  </si>
+  <si>
+    <t>3660</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>3678</t>
+  </si>
+  <si>
     <t>5000</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>BLOCKPATH</t>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lfpExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spkExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>recTech</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-1</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-2</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-3</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-4</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-6</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-7</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-8</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-9</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-10</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230708\Block-11</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-1</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-2</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-3</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-4</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-5</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-6</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-7</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-8</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-11</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-12</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\TDTTank\Rat2_SPR\Rat2SPR20230722\Block-13</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-1</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-2</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-3</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-4</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-5</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-6</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-7</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-8</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-9</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-10</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-11</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-12</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-13</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-14</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-15</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-16</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-17</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-18</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-19</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-20</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-21</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-22</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-23</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-24</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-25</t>
-  </si>
-  <si>
-    <t>N:\neuroPixels\TDTTank\Rat3_SPR\Rat3SPR20231024\Block-26</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-2</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-5</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-6</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-7</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-8</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-9</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-1</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-10</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-11</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatPitch1_SPR1\Block-12</t>
-  </si>
-  <si>
-    <t>paradigm</t>
+    <t>NeuroPixel</t>
+  </si>
+  <si>
+    <t>chNum</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>cf</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>RNP_Noise</t>
-  </si>
-  <si>
-    <t>RNP_ToneCF</t>
-  </si>
-  <si>
-    <t>RNP_TB_Basic</t>
-  </si>
-  <si>
-    <t>RNP_TB_BaseICI</t>
-  </si>
-  <si>
-    <t>RNP_TB_Oscillation</t>
-  </si>
-  <si>
-    <t>RNP_TB_Ratio</t>
-  </si>
-  <si>
-    <t>RNP_TB_Jitter</t>
-  </si>
-  <si>
-    <t>RNP_Click_Tuning</t>
-  </si>
-  <si>
-    <t>RNP_MMN</t>
-  </si>
-  <si>
-    <t>RNP_RandSeq</t>
-  </si>
-  <si>
-    <t>RNP_Noise</t>
-  </si>
-  <si>
-    <t>RNP_ToneCF</t>
-  </si>
-  <si>
-    <t>RNP_TB_Basic</t>
-  </si>
-  <si>
-    <t>RNP_TB_Ratio</t>
-  </si>
-  <si>
-    <t>RNP_RandSeq</t>
-  </si>
-  <si>
-    <t>RNP_Click_Tuning</t>
-  </si>
-  <si>
-    <t>RNP_MMN</t>
-  </si>
-  <si>
-    <t>RNP_Precise</t>
-  </si>
-  <si>
-    <t>RNP_TB_Basic_2_3</t>
-  </si>
-  <si>
-    <t>RNP_TB_BaseICI_2_3</t>
-  </si>
-  <si>
-    <t>RNP_TB_Ratio_4</t>
-  </si>
-  <si>
-    <t>RNP_Noise</t>
-  </si>
-  <si>
-    <t>RNP_ToneCF</t>
-  </si>
-  <si>
-    <t>RNP_CSD</t>
-  </si>
-  <si>
-    <t>RNP_Precise</t>
-  </si>
-  <si>
-    <t>RNP_Noise2</t>
-  </si>
-  <si>
-    <t>RNP_Click_Tuning_ICI4</t>
-  </si>
-  <si>
-    <t>RNP_MMN_ICI4_250</t>
-  </si>
-  <si>
-    <t>RNP_Noise3</t>
-  </si>
-  <si>
-    <t>RNP_RandSeq2_8</t>
-  </si>
-  <si>
-    <t>RNP_RandSeq2_16</t>
-  </si>
-  <si>
-    <t>RNP_Const2_8_16</t>
-  </si>
-  <si>
-    <t>RNP_RandSeq28</t>
-  </si>
-  <si>
-    <t>RNP_RandSeq216</t>
-  </si>
-  <si>
-    <t>RNP_Noise</t>
-  </si>
-  <si>
-    <t>RNP_ToneCF</t>
-  </si>
-  <si>
-    <t>RNP_CSD</t>
-  </si>
-  <si>
-    <t>RNP_Precise</t>
-  </si>
-  <si>
-    <t>RNP_Noise2</t>
-  </si>
-  <si>
-    <t>RNP_Click_Tuning_ICI4</t>
-  </si>
-  <si>
-    <t>RNP_MMN_ICI4_250</t>
-  </si>
-  <si>
-    <t>RNP_Noise3</t>
-  </si>
-  <si>
-    <t>RNP_RandSeq2_8</t>
-  </si>
-  <si>
-    <t>RNP_RandSeq2_16</t>
-  </si>
-  <si>
-    <t>RNP_Const2_8_16</t>
-  </si>
-  <si>
-    <t>RNP_RandSeq28</t>
-  </si>
-  <si>
-    <t>RNP_RandSeq216</t>
-  </si>
-  <si>
-    <t>RNP_Noise</t>
-  </si>
-  <si>
-    <t>RNP_ToneCF</t>
-  </si>
-  <si>
-    <t>RNP_Intrinsic</t>
-  </si>
-  <si>
-    <t>TwoPitch_Preliminary</t>
-  </si>
-  <si>
-    <t>RNP_Noise2</t>
-  </si>
-  <si>
-    <t>Irreg2Reg</t>
-  </si>
-  <si>
-    <t>RNP_Noise3</t>
-  </si>
-  <si>
-    <t>LocalGlobal_4_5</t>
-  </si>
-  <si>
-    <t>4050</t>
-  </si>
-  <si>
-    <t>RNP_Noise4</t>
-  </si>
-  <si>
-    <t>RNP_Noise5</t>
-  </si>
-  <si>
-    <t>RNP_Intrinsic2</t>
-  </si>
-  <si>
-    <t>RNP_ToneCF2</t>
-  </si>
-  <si>
-    <t>datPath</t>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>ks_ChSel</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722\Record Node 121\experiment2\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>I:\neuroPixels\OpenEphys\Rat2_20230722_2 (1)\Record Node 121\experiment2\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording4\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording5\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording6\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording7\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording1\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording2\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording3\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording8\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording9\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording10\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording11\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording12\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording13\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording14\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording15\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording16\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>N:\openEphys\Ratspr3_20231024 (1)\Record Node 121\experiment1\recording17\continuous\Neuropix-PXI-122.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording11\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>G:\DATA\OpenEphys\RatNPTwoPitchSPR_20241118\Record Node 109\experiment1\recording12\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>SR_AP</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>SR_LFP</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>sitePos</t>
+    <t>ks_ID</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>AC1</t>
-  </si>
-  <si>
-    <t>AC2</t>
-  </si>
-  <si>
-    <t>IC1</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>5460</t>
-  </si>
-  <si>
-    <t>3660</t>
-  </si>
-  <si>
-    <t>3800</t>
-  </si>
-  <si>
-    <t>3678</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>lfpExported</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>spkExported</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>recTech</t>
+    <t>comments</t>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>NeuroPixel</t>
-  </si>
-  <si>
-    <t>chNum</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>badChannel</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>dz</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>ks_ChSel</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ks_ID</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RNP_Local_Global</t>
@@ -928,84 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRatMGB120241206\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRatMGB120241206\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRatMGB120241206\Block-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRatMGB120241206\Block-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRatMGB120241206\Block-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRatMGB120241206\Block-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-4</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-5</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-6</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-7</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-8</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-9</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-10</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-11</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-12</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-13</t>
-  </si>
-  <si>
     <t>C_RNP_MMN_ICI4_250_S1</t>
   </si>
   <si>
@@ -1044,84 +924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-17</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-21</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-18</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-19</t>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-20</t>
-  </si>
-  <si>
     <t>Freeze_RNP_LocalGlobal_S1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1157,70 +959,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (2)\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (2)\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M:\DATA\spr\FreezeRat2MGB20241207\Block-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (2)\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\DATA\OpenEphys\RatMMNFz1SPR_20241207 (2)\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Recover_RNP_Noise</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Recover_RNP_ToneCF</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRatMGB120241206\Block-1</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRatMGB120241206\Block-3</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRatMGB120241206\Block-5</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRatMGB120241206\Block-6</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRatMGB120241206\Block-8</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRatMGB120241206\Block-9</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-1</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-2</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-3</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-4</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-5</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-6</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-7</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-8</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-9</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-10</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-11</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-12</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-13</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-14</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-15</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-16</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-17</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-18</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-19</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-20</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-21</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-22</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\spr\FreezeRat2MGB20241207\Block-23</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241206\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207\Record Node 109\experiment1\recording10\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording5\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording6\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording7\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording8\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (1)\Record Node 109\experiment1\recording9\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (2)\Record Node 109\experiment1\recording1\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (2)\Record Node 109\experiment1\recording2\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (2)\Record Node 109\experiment1\recording3\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>D:\Lab members\SPR\DATA\OpenEphys\RatMMNFz1SPR_20241207 (2)\Record Node 109\experiment1\recording4\continuous\Neuropix-PXI-108.ProbeA</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1253,7 +1184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1407,66 +1338,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1485,7 +1418,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1602,7 +1535,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1626,9 +1559,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1652,7 +1585,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1687,7 +1620,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1705,7 +1638,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1730,7 +1663,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1746,2988 +1679,4301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD66"/>
+    <sheetView tabSelected="true" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="112.21875" customWidth="1"/>
-    <col min="5" max="6" width="6.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" customWidth="1"/>
-    <col min="8" max="9" width="6.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" customWidth="1"/>
-    <col min="17" max="17" width="8" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" customWidth="1"/>
-    <col min="20" max="20" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.125" customWidth="true"/>
+    <col min="2" max="2" width="57.125" customWidth="true"/>
+    <col min="3" max="3" width="27.75" customWidth="true"/>
+    <col min="4" max="4" width="127.25" customWidth="true"/>
+    <col min="5" max="5" width="6.875" style="14" customWidth="true"/>
+    <col min="7" max="7" width="6.75" customWidth="true"/>
+    <col min="8" max="8" width="6.875" customWidth="true"/>
+    <col min="10" max="10" width="10.625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="11.375" customWidth="true"/>
+    <col min="12" max="12" width="9.875" customWidth="true"/>
+    <col min="13" max="13" width="7" customWidth="true"/>
+    <col min="14" max="14" width="10.875" style="9" customWidth="true"/>
+    <col min="15" max="15" width="5.625" style="6" customWidth="true"/>
+    <col min="16" max="16" width="6.875" customWidth="true"/>
+    <col min="17" max="17" width="8" style="6" customWidth="true"/>
+    <col min="18" max="18" width="5.625" style="6" customWidth="true"/>
+    <col min="19" max="19" width="9.75" customWidth="true"/>
+    <col min="20" max="20" width="34.875" customWidth="true"/>
+    <col min="6" max="6" width="6.875" style="14" customWidth="true"/>
+    <col min="9" max="9" width="6.875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>58</v>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="K1" s="29" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="S1" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="S1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>277</v>
-      </c>
       <c r="N2" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>282</v>
-      </c>
       <c r="P2" s="15" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" s="17" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="22"/>
+      <c r="P3" s="17"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="17"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N4" s="23"/>
       <c r="O4" s="12"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="10"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="12"/>
+      <c r="P5" s="10"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="10"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="12"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="10"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="12"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="10"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" s="10" customFormat="true" ht="12.75" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="10"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="12"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="10"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="12"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="10"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" s="10" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="12"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="10"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" s="24" customFormat="true" ht="13.5" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>1</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N12" s="28"/>
       <c r="O12" s="25"/>
+      <c r="P12" s="24"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="S12" s="24"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
         <v>2</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>2</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="0">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="0">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" ht="15" thickBot="true" x14ac:dyDescent="0.25">
+      <c r="A23" s="0">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D23" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="E23" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>260</v>
-      </c>
       <c r="I23" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" s="36" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>3</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N24" s="39"/>
       <c r="O24" s="40"/>
+      <c r="P24" s="36"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="36"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A25" s="41">
         <v>3</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N25" s="42"/>
       <c r="O25" s="34"/>
+      <c r="P25" s="32"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
-    </row>
-    <row r="26" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A26" s="41">
         <v>3</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N26" s="42"/>
       <c r="O26" s="34"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
-    </row>
-    <row r="27" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A27" s="41">
         <v>3</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N27" s="42"/>
       <c r="O27" s="34"/>
+      <c r="P27" s="32"/>
       <c r="Q27" s="34"/>
       <c r="R27" s="34"/>
-    </row>
-    <row r="28" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A28" s="41">
         <v>4</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N28" s="42"/>
       <c r="O28" s="34"/>
+      <c r="P28" s="32"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
-    </row>
-    <row r="29" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A29" s="41">
         <v>4</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N29" s="42"/>
       <c r="O29" s="34"/>
+      <c r="P29" s="32"/>
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
-    </row>
-    <row r="30" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S29" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A30" s="41">
         <v>4</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N30" s="42"/>
       <c r="O30" s="34"/>
+      <c r="P30" s="32"/>
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
-    </row>
-    <row r="31" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A31" s="41">
         <v>5</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N31" s="42"/>
       <c r="O31" s="34"/>
+      <c r="P31" s="32"/>
       <c r="Q31" s="34"/>
       <c r="R31" s="34"/>
-    </row>
-    <row r="32" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S31" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A32" s="41">
         <v>5</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L32" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N32" s="42"/>
       <c r="O32" s="34"/>
+      <c r="P32" s="32"/>
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
-    </row>
-    <row r="33" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A33" s="41">
         <v>5</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N33" s="42"/>
       <c r="O33" s="34"/>
+      <c r="P33" s="32"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
-    </row>
-    <row r="34" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S33" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A34" s="41">
         <v>5</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N34" s="42"/>
       <c r="O34" s="34"/>
+      <c r="P34" s="32"/>
       <c r="Q34" s="34"/>
       <c r="R34" s="34"/>
-    </row>
-    <row r="35" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A35" s="41">
         <v>5</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N35" s="42"/>
       <c r="O35" s="34"/>
+      <c r="P35" s="32"/>
       <c r="Q35" s="34"/>
       <c r="R35" s="34"/>
-    </row>
-    <row r="36" spans="1:18" s="32" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S35" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" s="32" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>5</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N36" s="42"/>
       <c r="O36" s="34"/>
+      <c r="P36" s="32"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="34"/>
-    </row>
-    <row r="37" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" s="36" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
         <v>6</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L37" s="37" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M37" s="37" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N37" s="39"/>
       <c r="O37" s="40"/>
+      <c r="P37" s="36"/>
       <c r="Q37" s="40"/>
       <c r="R37" s="40"/>
-    </row>
-    <row r="38" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="36"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A38" s="41">
         <v>6</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I38" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N38" s="42"/>
       <c r="O38" s="34"/>
+      <c r="P38" s="32"/>
       <c r="Q38" s="34"/>
       <c r="R38" s="34"/>
-    </row>
-    <row r="39" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="39" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A39" s="41">
         <v>6</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N39" s="42"/>
       <c r="O39" s="34"/>
+      <c r="P39" s="32"/>
       <c r="Q39" s="34"/>
       <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S39" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="40" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A40" s="41">
         <v>6</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N40" s="42"/>
       <c r="O40" s="34"/>
+      <c r="P40" s="32"/>
       <c r="Q40" s="34"/>
       <c r="R40" s="34"/>
-    </row>
-    <row r="41" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S40" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="41" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A41" s="41">
         <v>7</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N41" s="42"/>
       <c r="O41" s="34"/>
+      <c r="P41" s="32"/>
       <c r="Q41" s="34"/>
       <c r="R41" s="34"/>
-    </row>
-    <row r="42" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="42" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A42" s="41">
         <v>7</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M42" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N42" s="42"/>
       <c r="O42" s="34"/>
+      <c r="P42" s="32"/>
       <c r="Q42" s="34"/>
       <c r="R42" s="34"/>
-    </row>
-    <row r="43" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="43" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A43" s="41">
         <v>7</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K43" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M43" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N43" s="42"/>
       <c r="O43" s="34"/>
+      <c r="P43" s="32"/>
       <c r="Q43" s="34"/>
       <c r="R43" s="34"/>
-    </row>
-    <row r="44" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S43" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="44" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A44" s="41">
         <v>8</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L44" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M44" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N44" s="42"/>
       <c r="O44" s="34"/>
+      <c r="P44" s="32"/>
       <c r="Q44" s="34"/>
       <c r="R44" s="34"/>
-    </row>
-    <row r="45" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="45" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A45" s="41">
         <v>8</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N45" s="42"/>
       <c r="O45" s="34"/>
+      <c r="P45" s="32"/>
       <c r="Q45" s="34"/>
       <c r="R45" s="34"/>
-    </row>
-    <row r="46" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S45" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="46" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A46" s="41">
         <v>8</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M46" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N46" s="42"/>
       <c r="O46" s="34"/>
+      <c r="P46" s="32"/>
       <c r="Q46" s="34"/>
       <c r="R46" s="34"/>
-    </row>
-    <row r="47" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S46" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="47" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A47" s="41">
         <v>8</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H47" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K47" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M47" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N47" s="42"/>
       <c r="O47" s="34"/>
+      <c r="P47" s="32"/>
       <c r="Q47" s="34"/>
       <c r="R47" s="34"/>
-    </row>
-    <row r="48" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S47" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="48" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A48" s="41">
         <v>8</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M48" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N48" s="42"/>
       <c r="O48" s="34"/>
+      <c r="P48" s="32"/>
       <c r="Q48" s="34"/>
       <c r="R48" s="34"/>
-    </row>
-    <row r="49" spans="1:18" s="44" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S48" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="49" s="44" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A49" s="43">
         <v>8</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J49" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L49" s="47" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M49" s="47" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N49" s="48"/>
       <c r="O49" s="45"/>
+      <c r="P49" s="44"/>
       <c r="Q49" s="45"/>
       <c r="R49" s="45"/>
-    </row>
-    <row r="50" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="44"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="50" s="36" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A50" s="35">
         <v>9</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N50" s="39"/>
       <c r="O50" s="40"/>
+      <c r="P50" s="36"/>
       <c r="Q50" s="40"/>
       <c r="R50" s="40"/>
-    </row>
-    <row r="51" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S50" s="36"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="51" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A51" s="41">
         <v>9</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L51" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M51" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N51" s="42"/>
       <c r="O51" s="34"/>
+      <c r="P51" s="32"/>
       <c r="Q51" s="34"/>
       <c r="R51" s="34"/>
-    </row>
-    <row r="52" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S51" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="52" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A52" s="41">
         <v>9</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L52" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M52" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N52" s="42"/>
       <c r="O52" s="34"/>
+      <c r="P52" s="32"/>
       <c r="Q52" s="34"/>
       <c r="R52" s="34"/>
-    </row>
-    <row r="53" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S52" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="53" s="49" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A53" s="52">
         <v>9</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I53" s="49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J53" s="49" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K53" s="49" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L53" s="52" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M53" s="52" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N53" s="53"/>
       <c r="O53" s="50"/>
+      <c r="P53" s="49"/>
       <c r="Q53" s="50"/>
       <c r="R53" s="50"/>
-    </row>
-    <row r="54" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S53" s="49"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="54" s="49" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A54" s="41">
         <v>10</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I54" s="49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J54" s="49" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K54" s="49" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L54" s="52" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M54" s="52" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N54" s="53"/>
       <c r="O54" s="50"/>
+      <c r="P54" s="49"/>
       <c r="Q54" s="50"/>
       <c r="R54" s="50"/>
-    </row>
-    <row r="55" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S54" s="49"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="55" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A55" s="41">
         <v>10</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>175</v>
+        <v>286</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H55" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M55" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N55" s="42"/>
       <c r="O55" s="34"/>
+      <c r="P55" s="32"/>
       <c r="Q55" s="34"/>
       <c r="R55" s="34"/>
-    </row>
-    <row r="56" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S55" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="56" s="49" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A56" s="41">
         <v>11</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H56" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I56" s="49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J56" s="49" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K56" s="49" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L56" s="52" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M56" s="52" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N56" s="53"/>
       <c r="O56" s="50"/>
+      <c r="P56" s="49"/>
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
-    </row>
-    <row r="57" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S56" s="49"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="57" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A57" s="41">
         <v>11</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H57" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J57" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M57" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N57" s="42"/>
       <c r="O57" s="34"/>
+      <c r="P57" s="32"/>
       <c r="Q57" s="34"/>
       <c r="R57" s="34"/>
-    </row>
-    <row r="58" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S57" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="58" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A58" s="41">
         <v>11</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J58" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L58" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M58" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N58" s="42"/>
       <c r="O58" s="34"/>
+      <c r="P58" s="32"/>
       <c r="Q58" s="34"/>
       <c r="R58" s="34"/>
-    </row>
-    <row r="59" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S58" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="59" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A59" s="41">
         <v>12</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L59" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M59" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N59" s="42"/>
       <c r="O59" s="34"/>
+      <c r="P59" s="32"/>
       <c r="Q59" s="34"/>
       <c r="R59" s="34"/>
-    </row>
-    <row r="60" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S59" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="60" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A60" s="41">
         <v>12</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L60" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M60" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N60" s="42"/>
       <c r="O60" s="34"/>
+      <c r="P60" s="32"/>
       <c r="Q60" s="34"/>
       <c r="R60" s="34"/>
-    </row>
-    <row r="61" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S60" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="61" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A61" s="41">
         <v>12</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H61" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L61" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M61" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N61" s="42"/>
       <c r="O61" s="34"/>
+      <c r="P61" s="32"/>
       <c r="Q61" s="34"/>
       <c r="R61" s="34"/>
-    </row>
-    <row r="62" spans="1:18" s="32" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S61" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="62" s="32" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>12</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L62" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M62" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N62" s="42"/>
       <c r="O62" s="34"/>
+      <c r="P62" s="32"/>
       <c r="Q62" s="34"/>
       <c r="R62" s="34"/>
-    </row>
-    <row r="63" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S62" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="63" s="36" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>52</v>
+        <v>335</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="J63" s="32" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="K63" s="32" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="L63" s="37" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="M63" s="37" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="N63" s="39"/>
       <c r="O63" s="40"/>
+      <c r="P63" s="36"/>
       <c r="Q63" s="40"/>
       <c r="R63" s="40"/>
-    </row>
-    <row r="64" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S63" s="36"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="64" s="32" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>53</v>
+        <v>291</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>336</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="H64" s="32" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="L64" s="31" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="M64" s="31" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="N64" s="42"/>
       <c r="O64" s="34"/>
+      <c r="P64" s="32"/>
       <c r="Q64" s="34"/>
       <c r="R64" s="34"/>
-    </row>
-    <row r="65" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S64" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="65" s="32" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>54</v>
+        <v>281</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>337</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="H65" s="32" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="K65" s="32" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="M65" s="31" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="N65" s="42"/>
       <c r="O65" s="34"/>
+      <c r="P65" s="32"/>
       <c r="Q65" s="34"/>
       <c r="R65" s="34"/>
-    </row>
-    <row r="66" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S65" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="66" s="49" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A66" s="52">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="49" t="s">
-        <v>55</v>
+        <v>282</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>338</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="I66" s="49" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="J66" s="49" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="K66" s="49" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="L66" s="52" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="M66" s="52" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="N66" s="53"/>
       <c r="O66" s="50"/>
+      <c r="P66" s="49"/>
       <c r="Q66" s="50"/>
       <c r="R66" s="50"/>
+      <c r="S66" s="49"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="67" ht="15" thickBot="true" x14ac:dyDescent="0.25">
+      <c r="A67" s="54">
+        <v>13</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+      <c r="L67" s="0"/>
+      <c r="M67" s="0"/>
+      <c r="N67" s="0"/>
+      <c r="O67" s="0"/>
+      <c r="P67" s="0"/>
+      <c r="Q67" s="0"/>
+      <c r="R67" s="0"/>
+      <c r="S67" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="68" ht="15" thickBot="true" x14ac:dyDescent="0.25">
+      <c r="A68" s="54">
+        <v>13</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
+      <c r="I68" s="0"/>
+      <c r="J68" s="0"/>
+      <c r="K68" s="0"/>
+      <c r="L68" s="0"/>
+      <c r="M68" s="0"/>
+      <c r="N68" s="0"/>
+      <c r="O68" s="0"/>
+      <c r="P68" s="0"/>
+      <c r="Q68" s="0"/>
+      <c r="R68" s="0"/>
+      <c r="S68" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="69" s="36" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
+      <c r="A69" s="35">
+        <v>14</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J69" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K69" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L69" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="M69" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="N69" s="39"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="36"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="70" s="32" customFormat="true" x14ac:dyDescent="0.2">
+      <c r="A70" s="41">
+        <v>14</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J70" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K70" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L70" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M70" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N70" s="42"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="32"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="71" x14ac:dyDescent="0.2">
+      <c r="A71" s="0">
+        <v>15</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J71" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K71" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L71" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M71" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
+      <c r="P71" s="0"/>
+      <c r="Q71" s="0"/>
+      <c r="R71" s="0"/>
+      <c r="S71" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="72" x14ac:dyDescent="0.2">
+      <c r="A72" s="0">
+        <v>16</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J72" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K72" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L72" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M72" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N72" s="0"/>
+      <c r="O72" s="0"/>
+      <c r="P72" s="0"/>
+      <c r="Q72" s="0"/>
+      <c r="R72" s="0"/>
+      <c r="S72" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="73" x14ac:dyDescent="0.2">
+      <c r="A73" s="0">
+        <v>14</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F73" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H73" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J73" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K73" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L73" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M73" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N73" s="0"/>
+      <c r="O73" s="0"/>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
+      <c r="R73" s="0"/>
+      <c r="S73" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="74" x14ac:dyDescent="0.2">
+      <c r="A74" s="0">
+        <v>14</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H74" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J74" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K74" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L74" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M74" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N74" s="0"/>
+      <c r="O74" s="0"/>
+      <c r="P74" s="0"/>
+      <c r="Q74" s="0"/>
+      <c r="R74" s="0"/>
+      <c r="S74" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="75" x14ac:dyDescent="0.2">
+      <c r="A75" s="0">
+        <v>14</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H75" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J75" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K75" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L75" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M75" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N75" s="0"/>
+      <c r="O75" s="0"/>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
+      <c r="R75" s="0"/>
+      <c r="S75" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="76" x14ac:dyDescent="0.2">
+      <c r="A76" s="0">
+        <v>14</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J76" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K76" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L76" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M76" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N76" s="0"/>
+      <c r="O76" s="0"/>
+      <c r="P76" s="0"/>
+      <c r="Q76" s="0"/>
+      <c r="R76" s="0"/>
+      <c r="S76" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="77" x14ac:dyDescent="0.2">
+      <c r="A77" s="0">
+        <v>14</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J77" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K77" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L77" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M77" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0"/>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
+      <c r="S77" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="78" x14ac:dyDescent="0.2">
+      <c r="A78" s="0">
+        <v>14</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J78" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K78" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L78" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M78" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N78" s="0"/>
+      <c r="O78" s="0"/>
+      <c r="P78" s="0"/>
+      <c r="Q78" s="0"/>
+      <c r="R78" s="0"/>
+      <c r="S78" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="79" x14ac:dyDescent="0.2">
+      <c r="A79" s="0">
+        <v>15</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J79" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K79" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L79" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M79" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N79" s="0"/>
+      <c r="O79" s="0"/>
+      <c r="P79" s="0"/>
+      <c r="Q79" s="0"/>
+      <c r="R79" s="0"/>
+      <c r="S79" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="80" x14ac:dyDescent="0.2">
+      <c r="A80" s="0">
+        <v>16</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H80" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I80" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J80" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K80" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L80" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M80" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N80" s="0"/>
+      <c r="O80" s="0"/>
+      <c r="P80" s="0"/>
+      <c r="Q80" s="0"/>
+      <c r="R80" s="0"/>
+      <c r="S80" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="81" x14ac:dyDescent="0.2">
+      <c r="A81" s="0">
+        <v>14</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J81" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K81" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L81" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M81" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N81" s="0"/>
+      <c r="O81" s="0"/>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
+      <c r="R81" s="0"/>
+      <c r="S81" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="82" x14ac:dyDescent="0.2">
+      <c r="A82" s="0">
+        <v>14</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H82" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J82" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K82" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L82" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M82" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N82" s="0"/>
+      <c r="O82" s="0"/>
+      <c r="P82" s="0"/>
+      <c r="Q82" s="0"/>
+      <c r="R82" s="0"/>
+      <c r="S82" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="83" x14ac:dyDescent="0.2">
+      <c r="A83" s="0">
+        <v>14</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H83" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I83" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J83" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K83" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L83" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M83" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
+      <c r="S83" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="84" x14ac:dyDescent="0.2">
+      <c r="A84" s="0">
+        <v>14</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H84" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I84" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J84" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K84" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L84" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M84" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N84" s="0"/>
+      <c r="O84" s="0"/>
+      <c r="P84" s="0"/>
+      <c r="Q84" s="0"/>
+      <c r="R84" s="0"/>
+      <c r="S84" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="85" x14ac:dyDescent="0.2">
+      <c r="A85" s="0">
+        <v>14</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H85" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I85" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J85" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K85" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L85" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M85" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+      <c r="R85" s="0"/>
+      <c r="S85" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="86" x14ac:dyDescent="0.2">
+      <c r="A86" s="0">
+        <v>14</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H86" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I86" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J86" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K86" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L86" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M86" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N86" s="0"/>
+      <c r="O86" s="0"/>
+      <c r="P86" s="0"/>
+      <c r="Q86" s="0"/>
+      <c r="R86" s="0"/>
+      <c r="S86" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="87" x14ac:dyDescent="0.2">
+      <c r="A87" s="0">
+        <v>16</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H87" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I87" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J87" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K87" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L87" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M87" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N87" s="0"/>
+      <c r="O87" s="0"/>
+      <c r="P87" s="0"/>
+      <c r="Q87" s="0"/>
+      <c r="R87" s="0"/>
+      <c r="S87" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="88" x14ac:dyDescent="0.2">
+      <c r="A88" s="0">
+        <v>15</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H88" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I88" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J88" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K88" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L88" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M88" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N88" s="0"/>
+      <c r="O88" s="0"/>
+      <c r="P88" s="0"/>
+      <c r="Q88" s="0"/>
+      <c r="R88" s="0"/>
+      <c r="S88" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="89" x14ac:dyDescent="0.2">
+      <c r="A89" s="0">
+        <v>16</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G89" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H89" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I89" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J89" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K89" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L89" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M89" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N89" s="0"/>
+      <c r="O89" s="0"/>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="0"/>
+      <c r="R89" s="0"/>
+      <c r="S89" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="90" x14ac:dyDescent="0.2">
+      <c r="A90" s="0">
+        <v>14</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H90" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I90" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J90" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K90" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L90" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M90" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N90" s="0"/>
+      <c r="O90" s="0"/>
+      <c r="P90" s="0"/>
+      <c r="Q90" s="0"/>
+      <c r="R90" s="0"/>
+      <c r="S90" s="0"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="91" x14ac:dyDescent="0.2">
+      <c r="A91" s="0">
+        <v>14</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H91" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J91" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K91" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L91" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M91" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N91" s="0"/>
+      <c r="O91" s="0"/>
+      <c r="P91" s="0"/>
+      <c r="Q91" s="0"/>
+      <c r="R91" s="0"/>
+      <c r="S91" s="0"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4737,24 +5983,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2ED278-273F-4F08-AE25-85403C7565F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2ED278-273F-4F08-AE25-85403C7565F1}">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
-    <col min="4" max="4" width="111.21875" customWidth="1"/>
-    <col min="5" max="5" width="92" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="63.375" customWidth="true"/>
+    <col min="3" max="3" width="30.25" customWidth="true"/>
+    <col min="4" max="4" width="111.25" customWidth="true"/>
+    <col min="5" max="5" width="92" customWidth="true"/>
     <col min="9" max="9" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A1" s="31">
         <v>4</v>
       </c>
@@ -4799,7 +6045,7 @@
       <c r="Q1" s="34"/>
       <c r="R1" s="34"/>
     </row>
-    <row r="2" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
         <v>4</v>
       </c>
@@ -4844,7 +6090,7 @@
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
     </row>
-    <row r="3" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>4</v>
       </c>
@@ -4889,7 +6135,7 @@
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>4</v>
       </c>
@@ -4934,7 +6180,7 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -4979,7 +6225,7 @@
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>4</v>
       </c>
@@ -5024,7 +6270,7 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>4</v>
       </c>
@@ -5069,7 +6315,7 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
     </row>
-    <row r="8" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>4</v>
       </c>
@@ -5114,7 +6360,7 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>4</v>
       </c>
@@ -5159,7 +6405,7 @@
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>4</v>
       </c>
@@ -5204,7 +6450,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>4</v>
       </c>
@@ -5249,7 +6495,7 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>4</v>
       </c>
@@ -5294,7 +6540,7 @@
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
     </row>
-    <row r="13" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>4</v>
       </c>
@@ -5347,32 +6593,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BBBC03-E097-4F2C-B05D-E35D590A3209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BBBC03-E097-4F2C-B05D-E35D590A3209}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="95.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="136.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.125" customWidth="true"/>
+    <col min="3" max="3" width="29.375" customWidth="true"/>
+    <col min="4" max="4" width="136.625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="36" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A1" s="35">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>3</v>
@@ -5381,10 +6627,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>5</v>
@@ -5406,18 +6652,18 @@
       <c r="Q1" s="40"/>
       <c r="R1" s="40"/>
     </row>
-    <row r="2" spans="1:18" s="32" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" s="32" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A2" s="41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>3</v>
@@ -5426,10 +6672,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>5</v>
@@ -5451,18 +6697,18 @@
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
     </row>
-    <row r="3" spans="1:18" s="32" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" s="32" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>3</v>
@@ -5471,10 +6717,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>5</v>
@@ -5496,18 +6742,18 @@
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="1:18" s="49" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" s="49" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>3</v>
@@ -5516,10 +6762,10 @@
         <v>2500</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>5</v>
@@ -5541,47 +6787,47 @@
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
     </row>
-    <row r="5" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:18" s="36" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" ht="15" thickBot="true" x14ac:dyDescent="0.25"/>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" s="36" customFormat="true" ht="15" thickBot="true" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>3</v>
@@ -5590,10 +6836,10 @@
         <v>4</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I10" s="32">
         <v>0</v>
@@ -5615,18 +6861,18 @@
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
     </row>
-    <row r="11" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" s="32" customFormat="true" x14ac:dyDescent="0.2">
       <c r="A11" s="41">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>3</v>
@@ -5635,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I11" s="32">
         <v>0</v>
@@ -5660,18 +6906,18 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>3</v>
@@ -5680,10 +6926,10 @@
         <v>4</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I12" s="32">
         <v>0</v>
@@ -5701,15 +6947,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>16</v>
+      </c>
       <c r="B13" s="32" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>3</v>
@@ -5718,10 +6967,10 @@
         <v>4</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I13" s="32">
         <v>0</v>
@@ -5739,15 +6988,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
       <c r="B14" s="32" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>3</v>
@@ -5756,10 +7008,10 @@
         <v>4</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I14" s="32">
         <v>0</v>
@@ -5777,15 +7029,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" s="32" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>3</v>
@@ -5794,10 +7049,10 @@
         <v>4</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I15" s="32">
         <v>0</v>
@@ -5815,15 +7070,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" s="32" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D16" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>3</v>
@@ -5832,10 +7090,10 @@
         <v>4</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I16" s="32">
         <v>0</v>
@@ -5853,15 +7111,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
       <c r="B17" s="32" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C17" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="D17" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>3</v>
@@ -5870,10 +7131,10 @@
         <v>4</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I17" s="32">
         <v>0</v>
@@ -5891,15 +7152,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
       <c r="B18" s="32" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="D18" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>3</v>
@@ -5908,10 +7172,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I18" s="32">
         <v>0</v>
@@ -5929,15 +7193,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
       <c r="B19" s="32" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C19" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="D19" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>3</v>
@@ -5946,10 +7213,10 @@
         <v>4</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I19" s="32">
         <v>0</v>
@@ -5967,15 +7234,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
       <c r="B20" s="32" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>3</v>
@@ -5984,10 +7254,10 @@
         <v>4</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I20" s="32">
         <v>0</v>
@@ -6005,15 +7275,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16</v>
+      </c>
       <c r="B21" s="32" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C21" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="D21" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>3</v>
@@ -6022,10 +7295,10 @@
         <v>4</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I21" s="32">
         <v>0</v>
@@ -6043,15 +7316,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>14</v>
+      </c>
       <c r="B22" s="32" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C22" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>3</v>
@@ -6060,10 +7336,10 @@
         <v>4</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I22" s="32">
         <v>0</v>
@@ -6081,15 +7357,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>14</v>
+      </c>
       <c r="B23" s="32" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="D23" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>3</v>
@@ -6098,10 +7377,10 @@
         <v>4</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I23" s="32">
         <v>0</v>
@@ -6119,15 +7398,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>14</v>
+      </c>
       <c r="B24" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="D24" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>3</v>
@@ -6136,10 +7418,10 @@
         <v>4</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I24" s="32">
         <v>0</v>
@@ -6157,15 +7439,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>14</v>
+      </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="D25" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>3</v>
@@ -6174,10 +7459,10 @@
         <v>4</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I25" s="32">
         <v>0</v>
@@ -6195,15 +7480,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>14</v>
+      </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C26" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="D26" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>3</v>
@@ -6212,10 +7500,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I26" s="32">
         <v>0</v>
@@ -6233,15 +7521,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>14</v>
+      </c>
       <c r="B27" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="D27" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>3</v>
@@ -6250,10 +7541,10 @@
         <v>4</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I27" s="32">
         <v>0</v>
@@ -6271,15 +7562,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>16</v>
+      </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>3</v>
@@ -6288,10 +7582,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I28" s="32">
         <v>0</v>
@@ -6309,15 +7603,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>15</v>
+      </c>
       <c r="B29" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="D29" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>3</v>
@@ -6326,10 +7623,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I29" s="32">
         <v>0</v>
@@ -6347,15 +7644,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>16</v>
+      </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>3</v>
@@ -6364,10 +7664,10 @@
         <v>4</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I30" s="32">
         <v>0</v>
@@ -6385,31 +7685,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>14</v>
+      </c>
       <c r="B31" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="D31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="32">
+        <v>0</v>
+      </c>
+      <c r="J31" s="32">
+        <v>0</v>
+      </c>
+      <c r="K31" s="32">
+        <v>0</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>14</v>
+      </c>
       <c r="B32" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="D32" t="s">
-        <v>371</v>
+        <v>363</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>